--- a/patient_results.xlsx
+++ b/patient_results.xlsx
@@ -10,7 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vascular Function" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cardiopulmonary Exercise" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Respiratory Muscle Strength" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Heart Rate Variability" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Autonomic Measures" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,6 +447,16 @@
           <t>Visit 1</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Visit 2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Change</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -455,7 +465,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>18.65</v>
+        <v>5.5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>8.69</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.19</v>
       </c>
     </row>
     <row r="3">
@@ -465,7 +481,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.67</v>
+        <v>3.58</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.44</v>
       </c>
     </row>
     <row r="4">
@@ -475,7 +497,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.36</v>
+        <v>3.78</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.59</v>
       </c>
     </row>
     <row r="5">
@@ -485,7 +513,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>791.12</v>
+        <v>215.64</v>
+      </c>
+      <c r="C5" t="n">
+        <v>215.81</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="6">
@@ -495,7 +529,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1795.71</v>
+        <v>590.42</v>
+      </c>
+      <c r="C6" t="n">
+        <v>457.36</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-133.06</v>
       </c>
     </row>
     <row r="7">
@@ -505,7 +545,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>72.95</v>
+        <v>19.6</v>
+      </c>
+      <c r="C7" t="n">
+        <v>20.91</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.31</v>
       </c>
     </row>
     <row r="8">
@@ -515,7 +561,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>175.29</v>
+        <v>53.75</v>
+      </c>
+      <c r="C8" t="n">
+        <v>48.62</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-5.13</v>
       </c>
     </row>
     <row r="9">
@@ -525,7 +577,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>18677</v>
+        <v>7223.4</v>
+      </c>
+      <c r="C9" t="n">
+        <v>6000.6</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-1222.8</v>
       </c>
     </row>
     <row r="10">
@@ -535,7 +593,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19627.9</v>
+        <v>10513.5</v>
+      </c>
+      <c r="C10" t="n">
+        <v>20773.5</v>
+      </c>
+      <c r="D10" t="n">
+        <v>10260</v>
       </c>
     </row>
   </sheetData>
@@ -549,7 +613,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -568,6 +632,16 @@
           <t>Visit 1</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Visit 2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Change</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -576,7 +650,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>17.74</v>
+        <v>24.14</v>
+      </c>
+      <c r="C2" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.66</v>
       </c>
     </row>
     <row r="3">
@@ -586,7 +666,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.72</v>
+        <v>1.9</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="4">
@@ -595,9 +681,9 @@
           <t>Anaerobic Threshold (%VO2peak) (%)</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>67.09999999999999</v>
-      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -605,9 +691,9 @@
           <t>Anaerobic Threshold (VO2) (L/min)</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>1.16</v>
-      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -616,7 +702,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.01</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="7">
@@ -626,7 +718,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>27.19</v>
+        <v>35.87</v>
+      </c>
+      <c r="C7" t="n">
+        <v>37</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.13</v>
       </c>
     </row>
     <row r="8">
@@ -635,9 +733,11 @@
           <t>Peak O2 Pulse (mL/beat)</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>19.91</v>
-      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="n">
+        <v>13</v>
+      </c>
+      <c r="D8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -645,9 +745,9 @@
           <t>Peak Tidal Volume (L)</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>1.24</v>
-      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -655,9 +755,11 @@
           <t>Peak Respiratory Rate (breaths/min)</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>19.91</v>
-      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="n">
+        <v>33</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -666,7 +768,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>86.5</v>
+        <v>167</v>
+      </c>
+      <c r="C11" t="n">
+        <v>153</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-14</v>
       </c>
     </row>
     <row r="12">
@@ -676,7 +784,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>28.1</v>
+        <v>23.5</v>
+      </c>
+      <c r="C12" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-0.8</v>
       </c>
     </row>
     <row r="13">
@@ -685,39 +799,9 @@
           <t>OUES (L/min)</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>2.65</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>HRR 1 (BPM)</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>-17.5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>HRR 2 (BPM)</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>-13.5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Chronotropic Index (CI)</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>0.26</v>
-      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -730,7 +814,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -749,6 +833,16 @@
           <t>Visit 1</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Visit 2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Change</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -757,7 +851,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>24</v>
+        <v>64</v>
+      </c>
+      <c r="C2" t="n">
+        <v>119</v>
+      </c>
+      <c r="D2" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="3">
@@ -767,187 +867,173 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15</v>
+        <v>53</v>
+      </c>
+      <c r="C3" t="n">
+        <v>87</v>
+      </c>
+      <c r="D3" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>MIP Max Fatigue (cmH2O)</t>
+          <t>SMIP Max (Pre-Activity) (cmH2O)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
+        <v>77</v>
+      </c>
+      <c r="C4" t="n">
+        <v>315</v>
+      </c>
+      <c r="D4" t="n">
+        <v>238</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>MIP Max Fatigue (%) (%)</t>
+          <t>SMIP Max (Post-Activity) (cmH2O)</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>37.5</v>
+        <v>81</v>
+      </c>
+      <c r="C5" t="n">
+        <v>281</v>
+      </c>
+      <c r="D5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>SMIP Max (Pre-Activity) (cmH2O)</t>
+          <t>PIF Max (Pre-Activity) (cmH2O)</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>68</v>
+        <v>2.7</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>SMIP Max (Post-Activity) (cmH2O)</t>
+          <t>PIF Max (Post-Activity) (cmH2O)</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>25</v>
+        <v>2.4</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>SMIP Max Fatigue (cmH2O)</t>
+          <t>SIndex Max (Pre-Activity) (cmH2O)</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>43</v>
+        <v>48</v>
+      </c>
+      <c r="C8" t="n">
+        <v>82</v>
+      </c>
+      <c r="D8" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>SMIP Max Fatigue (%) (%)</t>
+          <t>SIndex Max (Post-Activity) (cmH2O)</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>63.24</v>
+        <v>43</v>
+      </c>
+      <c r="C9" t="n">
+        <v>66</v>
+      </c>
+      <c r="D9" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>PIF Max (Pre-Activity) (cmH2O)</t>
+          <t>FIT Max (Pre-Activity) (cmH2O)</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.3</v>
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="D10" t="n">
+        <v>3.8</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>PIF Max (Post-Activity) (cmH2O)</t>
+          <t>FIT Max (Post-Activity) (cmH2O)</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.2</v>
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="D11" t="n">
+        <v>3.6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>PIF Max Fatigue (cmH2O)</t>
+          <t>Volume Max (Pre-Activity) (L)</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1</v>
+        <v>1.9</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>PIF Max Fatigue (%) (%)</t>
+          <t>Volume Max (Post-Activity) (L)</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>7.69</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>SIndex Max (Pre-Activity) (cmH2O)</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>SIndex Max (Post-Activity) (cmH2O)</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>SIndex Max Fatigue (cmH2O)</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>SIndex Max Fatigue (%) (%)</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>FIT Max (Pre-Activity) (cmH2O)</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>1.1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>FIT Max (Post-Activity) (cmH2O)</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Volume Max (Pre-Activity) (L)</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>Volume Max (Post-Activity) (L)</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>1.3</v>
+        <v>2.1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-0.3</v>
       </c>
     </row>
   </sheetData>
@@ -961,7 +1047,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -980,6 +1066,16 @@
           <t>Visit 1</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Visit 2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Change</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -988,7 +1084,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>58.47</v>
+        <v>45.01</v>
+      </c>
+      <c r="C2" t="n">
+        <v>26.14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-18.87</v>
       </c>
     </row>
     <row r="3">
@@ -998,7 +1100,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>44.07</v>
+        <v>20.47</v>
+      </c>
+      <c r="C3" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-4.77</v>
       </c>
     </row>
     <row r="4">
@@ -1008,7 +1116,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>57.87</v>
+        <v>64.47</v>
+      </c>
+      <c r="C4" t="n">
+        <v>74.12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9.65</v>
       </c>
     </row>
     <row r="5">
@@ -1018,7 +1132,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>52.25</v>
+        <v>67.06</v>
+      </c>
+      <c r="C5" t="n">
+        <v>49.42</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-17.64</v>
       </c>
     </row>
     <row r="6">
@@ -1028,7 +1148,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>47.75</v>
+        <v>32.94</v>
+      </c>
+      <c r="C6" t="n">
+        <v>50.58</v>
+      </c>
+      <c r="D6" t="n">
+        <v>17.64</v>
       </c>
     </row>
     <row r="7">
@@ -1038,7 +1164,61 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.09</v>
+        <v>2.04</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-1.06</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>HRR 1 (BPM)</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>52</v>
+      </c>
+      <c r="C8" t="n">
+        <v>25</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-27</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>HRR 2 (BPM)</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>64</v>
+      </c>
+      <c r="C9" t="n">
+        <v>35</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-29</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Chronotropic Index (CI)</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-0.14</v>
       </c>
     </row>
   </sheetData>

--- a/patient_results.xlsx
+++ b/patient_results.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cardiopulmonary Exercise" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Respiratory Muscle Strength" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Autonomic Measures" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Symptoms" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,160 +448,98 @@
           <t>Visit 1</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Visit 2</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Change</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Flow-Mediated Dilation (%)</t>
+          <t>Sitting Systolic BP (mmHg)</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="C2" t="n">
-        <v>8.69</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.19</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Baseline Diameter (mm)</t>
+          <t>Sitting Diastolic BP (mmHg)</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.58</v>
-      </c>
-      <c r="C3" t="n">
-        <v>4.02</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.44</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Maximum Diameter (mm)</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>3.78</v>
-      </c>
-      <c r="C4" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.59</v>
-      </c>
+          <t>Flow-Mediated Dilation (%)</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Baseline Shear (dynes/cm²)</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>215.64</v>
-      </c>
-      <c r="C5" t="n">
-        <v>215.81</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.17</v>
-      </c>
+          <t>Baseline Diameter (mm)</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Maximum Shear (dynes/cm²)</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>590.42</v>
-      </c>
-      <c r="C6" t="n">
-        <v>457.36</v>
-      </c>
-      <c r="D6" t="n">
-        <v>-133.06</v>
-      </c>
+          <t>Maximum Diameter (mm)</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Baseline Velocity (cm/s)</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>19.6</v>
-      </c>
-      <c r="C7" t="n">
-        <v>20.91</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1.31</v>
-      </c>
+          <t>Baseline Shear (1/s²)</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Maximum Velocity (cm/s)</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>53.75</v>
-      </c>
-      <c r="C8" t="n">
-        <v>48.62</v>
-      </c>
-      <c r="D8" t="n">
-        <v>-5.13</v>
-      </c>
+          <t>Maximum Shear (1/s)</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Shear Area to Maximum (dynes·s/cm²)</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>7223.4</v>
-      </c>
-      <c r="C9" t="n">
-        <v>6000.6</v>
-      </c>
-      <c r="D9" t="n">
-        <v>-1222.8</v>
-      </c>
+          <t>Baseline Velocity (cm/s)</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
+          <t>Maximum Velocity (cm/s)</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Shear Area to Maximum (dynes·s/cm²)</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
           <t>Shear AUC (dynes·s/cm²)</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>10513.5</v>
-      </c>
-      <c r="C10" t="n">
-        <v>20773.5</v>
-      </c>
-      <c r="D10" t="n">
-        <v>10260</v>
-      </c>
+      <c r="B12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -613,7 +552,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -632,16 +571,6 @@
           <t>Visit 1</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Visit 2</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Change</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -649,159 +578,113 @@
           <t>VO2 Peak (mL/kg/min)</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>24.14</v>
-      </c>
-      <c r="C2" t="n">
-        <v>24.8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.66</v>
-      </c>
+      <c r="B2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>VO2 Peak (Absolute) (L/min)</t>
+          <t>Age/Gender Predicted VO2 Max (mL/kg/min)</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.09</v>
+        <v>11.71</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Anaerobic Threshold (%VO2peak) (%)</t>
+          <t>Percent Age/Gender Predicted VO2 Max (%)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Anaerobic Threshold (VO2) (L/min)</t>
+          <t>VO2 Peak (Absolute) (L/min)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Peak RER</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.02</v>
-      </c>
+          <t>Anaerobic Threshold (%VO2peak) (%)</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Peak PetCO2 (mmHg)</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>35.87</v>
-      </c>
-      <c r="C7" t="n">
-        <v>37</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1.13</v>
-      </c>
+          <t>Anaerobic Threshold (VO2) (L/min)</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Peak O2 Pulse (mL/beat)</t>
+          <t>Peak RER</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
-      <c r="C8" t="n">
-        <v>13</v>
-      </c>
-      <c r="D8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Peak Tidal Volume (L)</t>
+          <t>Peak PetCO2 (mmHg)</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Peak Respiratory Rate (breaths/min)</t>
+          <t>Peak O2 Pulse (mL/beat)</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
-      <c r="C10" t="n">
-        <v>33</v>
-      </c>
-      <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Peak Heart Rate (bpm)</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>167</v>
-      </c>
-      <c r="C11" t="n">
-        <v>153</v>
-      </c>
-      <c r="D11" t="n">
-        <v>-14</v>
-      </c>
+          <t>Peak Tidal Volume (L)</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Peak VE/VCO2</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="C12" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="D12" t="n">
-        <v>-0.8</v>
-      </c>
+          <t>Peak Respiratory Rate (breaths/min)</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
+          <t>Peak Heart Rate (bpm)</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Peak VE/VCO2</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
           <t>OUES (L/min)</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
+      <c r="B15" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -814,7 +697,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -833,207 +716,155 @@
           <t>Visit 1</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Visit 2</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Change</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>MIP Max (Pre-Activity) (cmH2O)</t>
+          <t>MIP Max (Pre) (cmH2O)</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>64</v>
-      </c>
-      <c r="C2" t="n">
-        <v>119</v>
-      </c>
-      <c r="D2" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>MIP Max (Post-Activity) (cmH2O)</t>
+          <t>MIP Max (Post) (cmH2O)</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>53</v>
-      </c>
-      <c r="C3" t="n">
-        <v>87</v>
-      </c>
-      <c r="D3" t="n">
-        <v>34</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>SMIP Max (Pre-Activity) (cmH2O)</t>
+          <t>Age/Weight Predicted MIP (1) (cmH2O)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>77</v>
-      </c>
-      <c r="C4" t="n">
-        <v>315</v>
-      </c>
-      <c r="D4" t="n">
-        <v>238</v>
+        <v>68.89</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>SMIP Max (Post-Activity) (cmH2O)</t>
+          <t>Age/Weight Predicted MIP (2) (cmH2O)</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>81</v>
-      </c>
-      <c r="C5" t="n">
-        <v>281</v>
-      </c>
-      <c r="D5" t="n">
-        <v>200</v>
+        <v>79.04000000000001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>PIF Max (Pre-Activity) (cmH2O)</t>
+          <t>Percent of Age/Weight Predicted MIP (Post-Activity) (2) (%)</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="C6" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2.1</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>PIF Max (Post-Activity) (cmH2O)</t>
+          <t>SMIP Max (Pre) (cmH2O)</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="C7" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1.4</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>SIndex Max (Pre-Activity) (cmH2O)</t>
+          <t>SMIP Max (Post) (cmH2O)</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>48</v>
-      </c>
-      <c r="C8" t="n">
-        <v>82</v>
-      </c>
-      <c r="D8" t="n">
-        <v>34</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>SIndex Max (Post-Activity) (cmH2O)</t>
+          <t>PIF Max (Pre) (cmH2O)</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>43</v>
-      </c>
-      <c r="C9" t="n">
-        <v>66</v>
-      </c>
-      <c r="D9" t="n">
-        <v>23</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>FIT Max (Pre-Activity) (cmH2O)</t>
+          <t>PIF Max (Post) (cmH2O)</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="D10" t="n">
-        <v>3.8</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>FIT Max (Post-Activity) (cmH2O)</t>
+          <t>SIndex Max (Pre) (cmH2O)</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="D11" t="n">
-        <v>3.6</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Volume Max (Pre-Activity) (L)</t>
+          <t>SIndex Max (Post) (cmH2O)</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="C12" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.3</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
+          <t>FIT Max (Pre-Activity) (cmH2O)</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>FIT Max (Post-Activity) (cmH2O)</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Volume Max (Pre-Activity) (L)</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
           <t>Volume Max (Post-Activity) (L)</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="D13" t="n">
-        <v>-0.3</v>
+      <c r="B16" t="n">
+        <v>1.7</v>
       </c>
     </row>
   </sheetData>
@@ -1047,7 +878,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1066,16 +897,6 @@
           <t>Visit 1</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Visit 2</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Change</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -1084,13 +905,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>45.01</v>
-      </c>
-      <c r="C2" t="n">
-        <v>26.14</v>
-      </c>
-      <c r="D2" t="n">
-        <v>-18.87</v>
+        <v>40.03</v>
       </c>
     </row>
     <row r="3">
@@ -1100,13 +915,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.47</v>
-      </c>
-      <c r="C3" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>-4.77</v>
+        <v>53.4</v>
       </c>
     </row>
     <row r="4">
@@ -1116,13 +925,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>64.47</v>
-      </c>
-      <c r="C4" t="n">
-        <v>74.12</v>
-      </c>
-      <c r="D4" t="n">
-        <v>9.65</v>
+        <v>74.29000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -1132,13 +935,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>67.06</v>
-      </c>
-      <c r="C5" t="n">
-        <v>49.42</v>
-      </c>
-      <c r="D5" t="n">
-        <v>-17.64</v>
+        <v>32.68</v>
       </c>
     </row>
     <row r="6">
@@ -1148,13 +945,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>32.94</v>
-      </c>
-      <c r="C6" t="n">
-        <v>50.58</v>
-      </c>
-      <c r="D6" t="n">
-        <v>17.64</v>
+        <v>67.31999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -1164,13 +955,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="D7" t="n">
-        <v>-1.06</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="8">
@@ -1179,15 +964,7 @@
           <t>HRR 1 (BPM)</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>52</v>
-      </c>
-      <c r="C8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D8" t="n">
-        <v>-27</v>
-      </c>
+      <c r="B8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -1195,15 +972,7 @@
           <t>HRR 2 (BPM)</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>64</v>
-      </c>
-      <c r="C9" t="n">
-        <v>35</v>
-      </c>
-      <c r="D9" t="n">
-        <v>-29</v>
-      </c>
+      <c r="B9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1211,14 +980,57 @@
           <t>Chronotropic Index (CI)</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="D10" t="n">
-        <v>-0.14</v>
+      <c r="B10" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Measure</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Visit 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Fatigue Severity</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Post-Exertional Malaise (DSQ)</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
